--- a/Projektionswege für SensiCH.xlsx
+++ b/Projektionswege für SensiCH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E098442-584C-4F3C-A6B8-8E7C623FC07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF47D37-53F9-434A-ACA7-66AEEE826765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36150" yWindow="3690" windowWidth="23250" windowHeight="12450" xr2:uid="{F25E6888-2790-42BB-821D-0A37C02C1169}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{F25E6888-2790-42BB-821D-0A37C02C1169}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -218,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -558,17 +565,17 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H4" sqref="H4:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -594,239 +601,239 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>49</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>63</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>61</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>61</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>64</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>65</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
